--- a/doc_new/2.需求-存档/2.3-成就系统/3.成就列表.xlsx
+++ b/doc_new/2.需求-存档/2.3-成就系统/3.成就列表.xlsx
@@ -884,7 +884,7 @@
     <t>累计通关任意难度【元素大陆-1】10次</t>
   </si>
   <si>
-    <t>刷新次数+1</t>
+    <t>符文刷新次数+1</t>
   </si>
   <si>
     <t>累计通关任意难度【元素大陆-1】50次</t>
@@ -2050,7 +2050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2116,9 +2116,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3616,35 +3613,35 @@
     </dxf>
   </dxfs>
   <tableStyles count="11" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{D0EF3083-6D8F-4B09-AFEA-52A0B39CD6A1}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{050C5D7F-46BC-4111-9930-C97FD8475920}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{5097F04F-9AE6-4630-9363-8C081D3B34BF}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{63E94725-2BB7-48F0-A684-541030398742}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{38028DF1-8D5B-4AF9-AB15-252EDB3458C1}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{1D0ACA5D-3B07-4E0B-94C3-B1B80D7EDCD2}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{90AB1193-B6D3-4F9B-B507-D6EEB3FD2D1C}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{53D3850E-2844-4996-816B-4564362C474F}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2EA2A912-39E2-4B68-A929-7791E89A32F6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DC8EB37D-261B-4420-8DD9-3559E30D24D8}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{90C166BB-6E96-4041-9327-9C7BF3F22D23}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F857FA68-FA27-49AF-A55F-F7FDB81734C2}">
       <tableStyleElement type="wholeTable" dxfId="27"/>
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
@@ -3656,7 +3653,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DF12B022-8504-4795-A750-04918F8A10E5}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{65FF20AA-EEC3-4A5D-BB73-7FBCC9ECDD78}">
       <tableStyleElement type="wholeTable" dxfId="34"/>
       <tableStyleElement type="headerRow" dxfId="33"/>
       <tableStyleElement type="totalRow" dxfId="32"/>
@@ -3665,14 +3662,14 @@
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="firstColumnStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{558A71D9-E06D-4330-99D8-1D6106131622}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{2B25F57B-31E9-4C34-81E3-758FA0FFC90F}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
       <tableStyleElement type="firstColumn" dxfId="36"/>
       <tableStyleElement type="lastColumn" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_f26cc8" count="9" xr9:uid="{CBF43470-10A6-4979-BCB6-8E91F63A36A3}">
+    <tableStyle name="中色系标题行镶边行表格样式_f26cc8" count="9" xr9:uid="{139FB2B4-66D5-4320-999F-94EEEC66AB91}">
       <tableStyleElement type="wholeTable" dxfId="48"/>
       <tableStyleElement type="headerRow" dxfId="47"/>
       <tableStyleElement type="totalRow" dxfId="46"/>
@@ -3683,7 +3680,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="41"/>
       <tableStyleElement type="lastTotalCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="中色系标题列镶边列表格样式_40095e" count="7" xr9:uid="{CE9EE0E9-D9CF-4A01-80B0-9DB3FE299877}">
+    <tableStyle name="中色系标题列镶边列表格样式_40095e" count="7" xr9:uid="{F2F10730-A6BE-43DD-99C7-BE70902F949E}">
       <tableStyleElement type="wholeTable" dxfId="55"/>
       <tableStyleElement type="totalRow" dxfId="54"/>
       <tableStyleElement type="firstColumn" dxfId="53"/>
@@ -3692,7 +3689,7 @@
       <tableStyleElement type="secondColumnStripe" dxfId="50"/>
       <tableStyleElement type="firstTotalCell" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="浅色系标题列镶边列表格样式_dd234c" count="7" xr9:uid="{6A11D59F-76AC-48A0-9FBD-944DCCA04F50}">
+    <tableStyle name="浅色系标题列镶边列表格样式_dd234c" count="7" xr9:uid="{65DCC000-B80E-401A-9E82-A7B12630EF2B}">
       <tableStyleElement type="wholeTable" dxfId="62"/>
       <tableStyleElement type="totalRow" dxfId="61"/>
       <tableStyleElement type="firstColumn" dxfId="60"/>
@@ -4004,10 +4001,10 @@
   <sheetPr/>
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F139" sqref="F139"/>
+      <selection pane="bottomLeft" activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="11">
@@ -4125,9 +4122,9 @@
       <c r="J3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4156,9 +4153,9 @@
       <c r="J4" s="14">
         <v>1</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4187,9 +4184,9 @@
       <c r="J5" s="14">
         <v>2</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4218,9 +4215,9 @@
       <c r="J6" s="15">
         <v>3</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4251,7 +4248,7 @@
       <c r="L7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4282,7 +4279,7 @@
       <c r="L8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4313,7 +4310,7 @@
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4344,7 +4341,7 @@
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4375,7 +4372,7 @@
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4406,7 +4403,7 @@
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4437,7 +4434,7 @@
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4468,7 +4465,7 @@
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4499,7 +4496,7 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4530,7 +4527,7 @@
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4561,7 +4558,7 @@
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4592,7 +4589,7 @@
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4623,7 +4620,7 @@
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4654,7 +4651,7 @@
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4685,7 +4682,7 @@
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4716,7 +4713,7 @@
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4747,7 +4744,7 @@
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4778,7 +4775,7 @@
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4809,7 +4806,7 @@
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4840,7 +4837,7 @@
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4871,7 +4868,7 @@
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4902,7 +4899,7 @@
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4933,7 +4930,7 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4964,7 +4961,7 @@
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4995,7 +4992,7 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5026,7 +5023,7 @@
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5057,7 +5054,7 @@
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5088,7 +5085,7 @@
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5119,7 +5116,7 @@
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5150,7 +5147,7 @@
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5181,7 +5178,7 @@
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5212,7 +5209,7 @@
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5243,7 +5240,7 @@
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5274,7 +5271,7 @@
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5305,7 +5302,7 @@
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5336,7 +5333,7 @@
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="26" t="s">
+      <c r="M42" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5367,7 +5364,7 @@
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5398,7 +5395,7 @@
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5429,7 +5426,7 @@
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="26" t="s">
+      <c r="M45" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5460,7 +5457,7 @@
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="26" t="s">
+      <c r="M46" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5491,7 +5488,7 @@
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="26" t="s">
+      <c r="M47" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5522,7 +5519,7 @@
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5551,7 +5548,7 @@
       <c r="L49" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M49" s="26" t="s">
+      <c r="M49" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5580,7 +5577,7 @@
       <c r="L50" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M50" s="26" t="s">
+      <c r="M50" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5609,7 +5606,7 @@
       <c r="L51" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M51" s="26" t="s">
+      <c r="M51" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5638,7 +5635,7 @@
       <c r="L52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M52" s="26" t="s">
+      <c r="M52" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5667,7 +5664,7 @@
       <c r="L53" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M53" s="26" t="s">
+      <c r="M53" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5696,7 +5693,7 @@
       <c r="L54" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M54" s="26" t="s">
+      <c r="M54" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5725,7 +5722,7 @@
       <c r="L55" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M55" s="26" t="s">
+      <c r="M55" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5754,7 +5751,7 @@
       <c r="L56" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M56" s="26" t="s">
+      <c r="M56" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5783,7 +5780,7 @@
       <c r="L57" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M57" s="27" t="s">
+      <c r="M57" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5814,7 +5811,7 @@
       <c r="L58" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M58" s="27" t="s">
+      <c r="M58" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5843,7 +5840,7 @@
       <c r="L59" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="27" t="s">
+      <c r="M59" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5872,7 +5869,7 @@
       <c r="L60" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M60" s="27" t="s">
+      <c r="M60" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5901,7 +5898,7 @@
       <c r="L61" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M61" s="27" t="s">
+      <c r="M61" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5932,7 +5929,7 @@
       <c r="L62" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M62" s="27" t="s">
+      <c r="M62" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5961,7 +5958,7 @@
       <c r="L63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M63" s="27" t="s">
+      <c r="M63" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5990,7 +5987,7 @@
       <c r="L64" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M64" s="27" t="s">
+      <c r="M64" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6019,7 +6016,7 @@
       <c r="L65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M65" s="27" t="s">
+      <c r="M65" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6048,7 +6045,7 @@
       <c r="L66" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M66" s="27" t="s">
+      <c r="M66" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6077,7 +6074,7 @@
       <c r="L67" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M67" s="27" t="s">
+      <c r="M67" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6091,10 +6088,10 @@
       <c r="C68" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="16"/>
@@ -6108,7 +6105,7 @@
       <c r="L68" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M68" s="27" t="s">
+      <c r="M68" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6122,10 +6119,10 @@
       <c r="C69" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F69" s="16"/>
@@ -6139,7 +6136,7 @@
       <c r="L69" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M69" s="27" t="s">
+      <c r="M69" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6168,7 +6165,7 @@
       <c r="L70" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M70" s="27" t="s">
+      <c r="M70" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6197,7 +6194,7 @@
       <c r="L71" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M71" s="27" t="s">
+      <c r="M71" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6226,7 +6223,7 @@
       <c r="L72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M72" s="27" t="s">
+      <c r="M72" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6255,7 +6252,7 @@
       <c r="L73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M73" s="27" t="s">
+      <c r="M73" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6284,7 +6281,7 @@
       <c r="L74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M74" s="27" t="s">
+      <c r="M74" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6313,7 +6310,7 @@
       <c r="L75" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M75" s="27" t="s">
+      <c r="M75" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6342,7 +6339,7 @@
       <c r="L76" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M76" s="27" t="s">
+      <c r="M76" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6359,7 +6356,7 @@
       <c r="D77" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="28" t="s">
         <v>140</v>
       </c>
       <c r="F77" s="16"/>
@@ -6373,7 +6370,7 @@
       <c r="L77" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M77" s="27" t="s">
+      <c r="M77" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6390,7 +6387,7 @@
       <c r="D78" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="28" t="s">
         <v>143</v>
       </c>
       <c r="F78" s="16"/>
@@ -6404,7 +6401,7 @@
       <c r="L78" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M78" s="27" t="s">
+      <c r="M78" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6421,7 +6418,7 @@
       <c r="D79" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16">
@@ -6433,7 +6430,7 @@
       <c r="L79" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M79" s="27" t="s">
+      <c r="M79" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6450,7 +6447,7 @@
       <c r="D80" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16">
@@ -6462,7 +6459,7 @@
       <c r="L80" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M80" s="27" t="s">
+      <c r="M80" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6479,7 +6476,7 @@
       <c r="D81" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E81" s="29"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16">
@@ -6491,7 +6488,7 @@
       <c r="L81" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M81" s="27" t="s">
+      <c r="M81" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6508,7 +6505,7 @@
       <c r="D82" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E82" s="29"/>
+      <c r="E82" s="28"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16">
@@ -6520,7 +6517,7 @@
       <c r="L82" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="27" t="s">
+      <c r="M82" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6537,7 +6534,7 @@
       <c r="D83" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="29"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16">
@@ -6549,7 +6546,7 @@
       <c r="L83" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M83" s="27" t="s">
+      <c r="M83" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6566,7 +6563,7 @@
       <c r="D84" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16">
@@ -6578,7 +6575,7 @@
       <c r="L84" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M84" s="27" t="s">
+      <c r="M84" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6595,7 +6592,7 @@
       <c r="D85" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="28"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16">
@@ -6607,7 +6604,7 @@
       <c r="L85" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M85" s="27" t="s">
+      <c r="M85" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6624,7 +6621,7 @@
       <c r="D86" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="28" t="s">
         <v>160</v>
       </c>
       <c r="F86" s="16"/>
@@ -6638,7 +6635,7 @@
       <c r="L86" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M86" s="27" t="s">
+      <c r="M86" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6667,7 +6664,7 @@
       </c>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="27" t="s">
+      <c r="M87" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6696,7 +6693,7 @@
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
-      <c r="M88" s="27" t="s">
+      <c r="M88" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6725,7 +6722,7 @@
       </c>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
-      <c r="M89" s="27" t="s">
+      <c r="M89" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6756,7 +6753,7 @@
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
-      <c r="M90" s="27" t="s">
+      <c r="M90" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6785,7 +6782,7 @@
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
-      <c r="M91" s="27" t="s">
+      <c r="M91" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6814,7 +6811,7 @@
       </c>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="27" t="s">
+      <c r="M92" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6843,7 +6840,7 @@
       </c>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
-      <c r="M93" s="27" t="s">
+      <c r="M93" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6874,7 +6871,7 @@
       </c>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="27" t="s">
+      <c r="M94" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6891,7 +6888,7 @@
       <c r="D95" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E95" s="30"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="16">
         <v>3</v>
       </c>
@@ -6905,7 +6902,7 @@
       <c r="L95" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M95" s="27" t="s">
+      <c r="M95" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6936,7 +6933,7 @@
       <c r="L96" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M96" s="27" t="s">
+      <c r="M96" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6967,7 +6964,7 @@
       <c r="L97" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M97" s="27" t="s">
+      <c r="M97" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6998,7 +6995,7 @@
       <c r="L98" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M98" s="27" t="s">
+      <c r="M98" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7029,7 +7026,7 @@
       <c r="L99" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M99" s="27" t="s">
+      <c r="M99" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7060,7 +7057,7 @@
       <c r="L100" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M100" s="27" t="s">
+      <c r="M100" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7091,7 +7088,7 @@
       <c r="L101" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M101" s="27" t="s">
+      <c r="M101" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7122,7 +7119,7 @@
       <c r="L102" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M102" s="27" t="s">
+      <c r="M102" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7153,7 +7150,7 @@
       <c r="L103" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M103" s="27" t="s">
+      <c r="M103" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7184,7 +7181,7 @@
       </c>
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
-      <c r="M104" s="27" t="s">
+      <c r="M104" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7215,7 +7212,7 @@
       </c>
       <c r="K105" s="16"/>
       <c r="L105" s="16"/>
-      <c r="M105" s="27" t="s">
+      <c r="M105" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7246,7 +7243,7 @@
       </c>
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
-      <c r="M106" s="27" t="s">
+      <c r="M106" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7277,7 +7274,7 @@
       </c>
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
-      <c r="M107" s="27" t="s">
+      <c r="M107" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7308,7 +7305,7 @@
       </c>
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
-      <c r="M108" s="27" t="s">
+      <c r="M108" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7339,7 +7336,7 @@
       </c>
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
-      <c r="M109" s="27" t="s">
+      <c r="M109" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7370,7 +7367,7 @@
       </c>
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
-      <c r="M110" s="27" t="s">
+      <c r="M110" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7401,7 +7398,7 @@
       </c>
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
-      <c r="M111" s="27" t="s">
+      <c r="M111" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7432,7 +7429,7 @@
       </c>
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
-      <c r="M112" s="27" t="s">
+      <c r="M112" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7463,7 +7460,7 @@
       </c>
       <c r="K113" s="16"/>
       <c r="L113" s="16"/>
-      <c r="M113" s="27" t="s">
+      <c r="M113" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7494,7 +7491,7 @@
       </c>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
-      <c r="M114" s="27" t="s">
+      <c r="M114" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7525,7 +7522,7 @@
       </c>
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
-      <c r="M115" s="27" t="s">
+      <c r="M115" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7556,7 +7553,7 @@
       </c>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
-      <c r="M116" s="27" t="s">
+      <c r="M116" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7587,7 +7584,7 @@
       </c>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
-      <c r="M117" s="27" t="s">
+      <c r="M117" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7618,7 +7615,7 @@
       </c>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
-      <c r="M118" s="27" t="s">
+      <c r="M118" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7649,7 +7646,7 @@
       </c>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
-      <c r="M119" s="27" t="s">
+      <c r="M119" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7680,7 +7677,7 @@
       </c>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
-      <c r="M120" s="27" t="s">
+      <c r="M120" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7711,7 +7708,7 @@
       </c>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
-      <c r="M121" s="27" t="s">
+      <c r="M121" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7742,7 +7739,7 @@
       </c>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
-      <c r="M122" s="27" t="s">
+      <c r="M122" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7773,7 +7770,7 @@
       </c>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
-      <c r="M123" s="27" t="s">
+      <c r="M123" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7804,7 +7801,7 @@
       </c>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
-      <c r="M124" s="27" t="s">
+      <c r="M124" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7835,7 +7832,7 @@
       </c>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
-      <c r="M125" s="27" t="s">
+      <c r="M125" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7866,7 +7863,7 @@
       </c>
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
-      <c r="M126" s="27" t="s">
+      <c r="M126" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7897,7 +7894,7 @@
       </c>
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
-      <c r="M127" s="27" t="s">
+      <c r="M127" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7928,7 +7925,7 @@
       </c>
       <c r="K128" s="16"/>
       <c r="L128" s="16"/>
-      <c r="M128" s="27" t="s">
+      <c r="M128" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7959,7 +7956,7 @@
       </c>
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
-      <c r="M129" s="27" t="s">
+      <c r="M129" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7990,7 +7987,7 @@
       </c>
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
-      <c r="M130" s="27" t="s">
+      <c r="M130" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8021,7 +8018,7 @@
       </c>
       <c r="K131" s="16"/>
       <c r="L131" s="16"/>
-      <c r="M131" s="27" t="s">
+      <c r="M131" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8052,43 +8049,43 @@
       </c>
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
-      <c r="M132" s="27" t="s">
+      <c r="M132" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="133" ht="16.5" spans="1:13">
-      <c r="A133" s="31">
+      <c r="A133" s="30">
         <v>131</v>
       </c>
       <c r="B133" s="16">
         <v>5</v>
       </c>
-      <c r="C133" s="32" t="s">
+      <c r="C133" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="32" t="s">
+      <c r="D133" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32">
+      <c r="E133" s="31"/>
+      <c r="F133" s="31">
         <v>14</v>
       </c>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32">
+      <c r="G133" s="31"/>
+      <c r="H133" s="31">
         <v>10</v>
       </c>
-      <c r="I133" s="32"/>
-      <c r="J133" s="32">
+      <c r="I133" s="31"/>
+      <c r="J133" s="31">
         <v>130</v>
       </c>
-      <c r="K133" s="32"/>
-      <c r="L133" s="32"/>
-      <c r="M133" s="39" t="s">
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
+      <c r="M133" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:13">
-      <c r="A134" s="33">
+      <c r="A134" s="32">
         <v>132</v>
       </c>
       <c r="B134" s="5">
@@ -8114,7 +8111,7 @@
       </c>
     </row>
     <row r="135" ht="15" spans="1:13">
-      <c r="A135" s="34">
+      <c r="A135" s="33">
         <v>133</v>
       </c>
       <c r="B135" s="5">
@@ -8140,7 +8137,7 @@
       </c>
     </row>
     <row r="136" ht="15" spans="1:13">
-      <c r="A136" s="35">
+      <c r="A136" s="34">
         <v>134</v>
       </c>
       <c r="B136" s="5">
@@ -8166,7 +8163,7 @@
       </c>
     </row>
     <row r="137" ht="15" spans="1:13">
-      <c r="A137" s="34">
+      <c r="A137" s="33">
         <v>135</v>
       </c>
       <c r="B137" s="5">
@@ -8192,7 +8189,7 @@
       </c>
     </row>
     <row r="138" ht="15" spans="1:13">
-      <c r="A138" s="35">
+      <c r="A138" s="34">
         <v>136</v>
       </c>
       <c r="B138" s="5">
@@ -8218,7 +8215,7 @@
       </c>
     </row>
     <row r="139" ht="15" spans="1:14">
-      <c r="A139" s="34">
+      <c r="A139" s="33">
         <v>137</v>
       </c>
       <c r="B139" s="5">
@@ -8233,12 +8230,12 @@
       <c r="H139" s="5">
         <v>0</v>
       </c>
-      <c r="N139" s="40" t="s">
+      <c r="N139" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:14">
-      <c r="A140" s="35">
+      <c r="A140" s="34">
         <v>138</v>
       </c>
       <c r="B140" s="5">
@@ -8256,12 +8253,12 @@
       <c r="J140" s="5">
         <v>137</v>
       </c>
-      <c r="N140" s="40" t="s">
+      <c r="N140" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="141" ht="15" spans="1:14">
-      <c r="A141" s="34">
+      <c r="A141" s="33">
         <v>139</v>
       </c>
       <c r="B141" s="5">
@@ -8279,12 +8276,12 @@
       <c r="J141" s="5">
         <v>138</v>
       </c>
-      <c r="N141" s="40" t="s">
+      <c r="N141" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:14">
-      <c r="A142" s="35">
+      <c r="A142" s="34">
         <v>140</v>
       </c>
       <c r="B142" s="5">
@@ -8299,12 +8296,12 @@
       <c r="H142" s="5">
         <v>0</v>
       </c>
-      <c r="N142" s="40" t="s">
+      <c r="N142" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="143" ht="15" spans="1:14">
-      <c r="A143" s="34">
+      <c r="A143" s="33">
         <v>141</v>
       </c>
       <c r="B143" s="5">
@@ -8322,12 +8319,12 @@
       <c r="J143" s="5">
         <v>140</v>
       </c>
-      <c r="N143" s="40" t="s">
+      <c r="N143" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:14">
-      <c r="A144" s="35">
+      <c r="A144" s="34">
         <v>142</v>
       </c>
       <c r="B144" s="5">
@@ -8345,12 +8342,12 @@
       <c r="J144" s="5">
         <v>141</v>
       </c>
-      <c r="N144" s="40" t="s">
+      <c r="N144" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="145" ht="15" spans="1:14">
-      <c r="A145" s="34">
+      <c r="A145" s="33">
         <v>143</v>
       </c>
       <c r="B145" s="5">
@@ -8365,12 +8362,12 @@
       <c r="H145" s="5">
         <v>0</v>
       </c>
-      <c r="N145" s="40" t="s">
+      <c r="N145" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:14">
-      <c r="A146" s="35">
+      <c r="A146" s="34">
         <v>144</v>
       </c>
       <c r="B146" s="5">
@@ -8388,12 +8385,12 @@
       <c r="J146" s="5">
         <v>143</v>
       </c>
-      <c r="N146" s="40" t="s">
+      <c r="N146" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:14">
-      <c r="A147" s="34">
+      <c r="A147" s="33">
         <v>145</v>
       </c>
       <c r="B147" s="5">
@@ -8411,12 +8408,12 @@
       <c r="J147" s="5">
         <v>144</v>
       </c>
-      <c r="N147" s="40" t="s">
+      <c r="N147" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:14">
-      <c r="A148" s="35">
+      <c r="A148" s="34">
         <v>146</v>
       </c>
       <c r="B148" s="5">
@@ -8431,12 +8428,12 @@
       <c r="H148" s="5">
         <v>0</v>
       </c>
-      <c r="N148" s="40" t="s">
+      <c r="N148" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:14">
-      <c r="A149" s="34">
+      <c r="A149" s="33">
         <v>147</v>
       </c>
       <c r="B149" s="5">
@@ -8454,12 +8451,12 @@
       <c r="J149" s="5">
         <v>146</v>
       </c>
-      <c r="N149" s="40" t="s">
+      <c r="N149" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="150" ht="15" spans="1:14">
-      <c r="A150" s="35">
+      <c r="A150" s="34">
         <v>148</v>
       </c>
       <c r="B150" s="5">
@@ -8477,12 +8474,12 @@
       <c r="J150" s="5">
         <v>147</v>
       </c>
-      <c r="N150" s="40" t="s">
+      <c r="N150" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:14">
-      <c r="A151" s="34">
+      <c r="A151" s="33">
         <v>149</v>
       </c>
       <c r="B151" s="5">
@@ -8497,12 +8494,12 @@
       <c r="H151" s="5">
         <v>0</v>
       </c>
-      <c r="N151" s="40" t="s">
+      <c r="N151" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="152" ht="15" spans="1:14">
-      <c r="A152" s="35">
+      <c r="A152" s="34">
         <v>150</v>
       </c>
       <c r="B152" s="5">
@@ -8520,12 +8517,12 @@
       <c r="J152" s="5">
         <v>149</v>
       </c>
-      <c r="N152" s="40" t="s">
+      <c r="N152" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="153" ht="15" spans="1:14">
-      <c r="A153" s="34">
+      <c r="A153" s="33">
         <v>151</v>
       </c>
       <c r="B153" s="5">
@@ -8543,32 +8540,32 @@
       <c r="J153" s="5">
         <v>150</v>
       </c>
-      <c r="N153" s="40" t="s">
+      <c r="N153" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:14">
-      <c r="A154" s="36">
+      <c r="A154" s="35">
         <v>152</v>
       </c>
-      <c r="N154" s="40"/>
+      <c r="N154" s="39"/>
     </row>
     <row r="155" ht="16.5" spans="1:14">
-      <c r="A155" s="37">
+      <c r="A155" s="36">
         <v>153</v>
       </c>
-      <c r="B155" s="38"/>
-      <c r="C155" s="38"/>
-      <c r="E155" s="38"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="38"/>
-      <c r="I155" s="38"/>
-      <c r="J155" s="38"/>
-      <c r="K155" s="38"/>
-      <c r="L155" s="38"/>
-      <c r="M155" s="38"/>
-      <c r="N155" s="40"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="37"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="37"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="37"/>
+      <c r="L155" s="37"/>
+      <c r="M155" s="37"/>
+      <c r="N155" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
